--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1575328.485146134</v>
+        <v>1610647.240471902</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914463</v>
+        <v>426806.9758914465</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478705</v>
+        <v>8362709.48847871</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8207815.090804748</v>
+        <v>8207815.090804747</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="D2" t="n">
-        <v>80.83011447495538</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -788,16 +788,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>150.2142914581905</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>108.1960350243787</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>36.21593518981624</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>117.8074216906837</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>178.6958490491743</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>68.21015448122991</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,16 +1226,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>56.53057837339747</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>31.09377841549246</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
@@ -1426,19 +1426,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>12.59058426870698</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>45.43345970665899</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0.4026817847178085</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>132.1304135414942</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>106.6625400468573</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>4.336248136235022</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>43.76331341951727</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>47.29162376596717</v>
       </c>
     </row>
     <row r="16">
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.86812642446847</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.08993799274048</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>51.48327957309745</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>71.23415129465417</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597627</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>95.87483792926903</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>70.09267063964653</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405353</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>74.1530757812782</v>
       </c>
       <c r="T19" t="n">
-        <v>146.3125801111237</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>278.3000231143834</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>165.2541340530447</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2216,7 +2216,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8957288909827</v>
+        <v>190.0828506192237</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>20.07438641789252</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>39.01503136664152</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>221.1669429811602</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951727</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>56.15994138332061</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.141326929176249</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>272.5074327371128</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>130.9987317589191</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>123.3277290573767</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>73.66757925108482</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>270.0379388598728</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>280.2616061877426</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>163.1631127516771</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>179.9713635641582</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>141.605924235581</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>74.15307578127808</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>268.1664801269724</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>23.09623707927886</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>100.8367104035708</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>17.44731957864654</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>141.8557190765649</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>68.39969274597628</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>74.19557493785983</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>133.376293420777</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3353,16 +3353,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>121.8322021836414</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>43.76331341951727</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>47.61011138094008</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>146.5623749521075</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>66.62796726259057</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.8351331884454</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597627</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>100.8367104035708</v>
+        <v>20.17002628298199</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>73.66757925108499</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>74.15307578127808</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>322.2732370059034</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597627</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>61.86667015418589</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>43.76331341951727</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242959</v>
       </c>
       <c r="T42" t="n">
         <v>197.3677099213027</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73.91737409206878</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.3856315060354</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.5455827219029</v>
+        <v>302.8741910601341</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4058,10 +4058,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>6.098631347230446</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>110.9382564621838</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
         <v>105.5335559456492</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>192.9437564890481</v>
+        <v>204.6130224753725</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>348.0024326625565</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
         <v>266.3558523848238</v>
@@ -4372,10 +4372,10 @@
         <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>348.0024326625565</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
         <v>223.7040404982626</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>508.9694238887622</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H4" t="n">
         <v>41.77557929797318</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="5">
@@ -4591,22 +4591,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>333.7844730889342</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>90.33569644483418</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W5" t="n">
-        <v>90.33569644483418</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X5" t="n">
         <v>53.75394372784808</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.9694238887622</v>
+        <v>845.059759863481</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>670.606730582354</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>521.6723209211027</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F6" t="n">
         <v>362.4348659156472</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.9694238887622</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.6530896684844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>122.6530896684844</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>122.6530896684844</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>115.7075889192809</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>100.2502782979324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>100.2502782979324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4843,13 +4843,13 @@
         <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>668.2068788942177</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C9" t="n">
-        <v>668.2068788942177</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>982.7970731525218</v>
+        <v>596.7042600347727</v>
       </c>
       <c r="C11" t="n">
-        <v>982.7970731525218</v>
+        <v>596.7042600347727</v>
       </c>
       <c r="D11" t="n">
-        <v>982.7970731525218</v>
+        <v>596.7042600347727</v>
       </c>
       <c r="E11" t="n">
-        <v>951.3892161671758</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F11" t="n">
-        <v>540.4033113775683</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G11" t="n">
-        <v>540.4033113775683</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H11" t="n">
         <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J11" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
         <v>795.0052981540048</v>
@@ -5053,40 +5053,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S11" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T11" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2040.094374027286</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="V11" t="n">
-        <v>1709.031486683716</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W11" t="n">
-        <v>1356.262831413602</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X11" t="n">
-        <v>982.7970731525218</v>
+        <v>1373.443432074706</v>
       </c>
       <c r="Y11" t="n">
-        <v>982.7970731525218</v>
+        <v>983.3041000988944</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>882.5823026510598</v>
       </c>
       <c r="C12" t="n">
-        <v>722.1845715439331</v>
+        <v>708.1292733699328</v>
       </c>
       <c r="D12" t="n">
-        <v>573.2501618826818</v>
+        <v>559.1948637086815</v>
       </c>
       <c r="E12" t="n">
-        <v>414.0127068772263</v>
+        <v>399.957408703226</v>
       </c>
       <c r="F12" t="n">
-        <v>267.4781489041113</v>
+        <v>253.422850730111</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>115.3929631792726</v>
       </c>
       <c r="H12" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K12" t="n">
         <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478938</v>
       </c>
       <c r="M12" t="n">
         <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1681.835959361803</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>2094.041580881032</v>
       </c>
       <c r="P12" t="n">
         <v>2407.869865162339</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S12" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601559</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641615</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436082</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671128</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.721849281329</v>
+        <v>351.2209996437977</v>
       </c>
       <c r="C13" t="n">
-        <v>123.721849281329</v>
+        <v>182.2848167158908</v>
       </c>
       <c r="D13" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E13" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F13" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G13" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371203</v>
+        <v>93.68771932371205</v>
       </c>
       <c r="L13" t="n">
-        <v>206.6297039190408</v>
+        <v>206.6297039190409</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345759</v>
+        <v>336.100314134576</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420814</v>
       </c>
       <c r="O13" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801512</v>
       </c>
       <c r="P13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="T13" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="U13" t="n">
-        <v>123.721849281329</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="V13" t="n">
-        <v>123.721849281329</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="W13" t="n">
-        <v>123.721849281329</v>
+        <v>351.2209996437977</v>
       </c>
       <c r="X13" t="n">
-        <v>123.721849281329</v>
+        <v>351.2209996437977</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.721849281329</v>
+        <v>351.2209996437977</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.403935229856</v>
+        <v>897.0329007044809</v>
       </c>
       <c r="C14" t="n">
-        <v>1215.441418289444</v>
+        <v>897.0329007044809</v>
       </c>
       <c r="D14" t="n">
-        <v>857.1757196826934</v>
+        <v>897.0329007044809</v>
       </c>
       <c r="E14" t="n">
-        <v>471.3874670844492</v>
+        <v>897.0329007044809</v>
       </c>
       <c r="F14" t="n">
-        <v>471.3874670844492</v>
+        <v>486.0469959148733</v>
       </c>
       <c r="G14" t="n">
-        <v>53.1998011550229</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>53.1998011550229</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5314,16 +5314,16 @@
         <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>1971.003775293977</v>
+        <v>1639.940887950407</v>
       </c>
       <c r="W14" t="n">
-        <v>1971.003775293977</v>
+        <v>1287.172232680293</v>
       </c>
       <c r="X14" t="n">
-        <v>1971.003775293977</v>
+        <v>1287.172232680293</v>
       </c>
       <c r="Y14" t="n">
-        <v>1971.003775293977</v>
+        <v>897.0329007044809</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439335</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628066</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015553</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960998</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F15" t="n">
-        <v>93.02511962298476</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G15" t="n">
-        <v>93.02511962298476</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>161.140637133919</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593123</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N15" t="n">
         <v>1557.865593173221</v>
@@ -5402,7 +5402,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640016</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.1971257069884</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C16" t="n">
-        <v>238.1971257069884</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D16" t="n">
-        <v>88.08048629465264</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E16" t="n">
-        <v>88.08048629465264</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F16" t="n">
         <v>48.81975253256328</v>
@@ -5439,49 +5439,49 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371202</v>
+        <v>93.68771932371205</v>
       </c>
       <c r="L16" t="n">
-        <v>206.6297039190408</v>
+        <v>206.6297039190409</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345759</v>
+        <v>336.100314134576</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420814</v>
       </c>
       <c r="O16" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801512</v>
       </c>
       <c r="P16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="R16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581506</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581506</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212119002</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y16" t="n">
-        <v>419.8455905372281</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1263.064682367083</v>
+        <v>489.7359576493934</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.064682367083</v>
+        <v>120.7734407089816</v>
       </c>
       <c r="D17" t="n">
-        <v>904.7989837603322</v>
+        <v>120.7734407089816</v>
       </c>
       <c r="E17" t="n">
-        <v>519.0107311620879</v>
+        <v>120.7734407089816</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>120.7734407089816</v>
       </c>
       <c r="G17" t="n">
         <v>48.81975253256328</v>
@@ -5515,13 +5515,13 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T17" t="n">
-        <v>2221.373021959851</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U17" t="n">
-        <v>1967.593327971733</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V17" t="n">
-        <v>1636.530440628163</v>
+        <v>1639.940887950407</v>
       </c>
       <c r="W17" t="n">
-        <v>1636.530440628163</v>
+        <v>1639.940887950407</v>
       </c>
       <c r="X17" t="n">
-        <v>1263.064682367083</v>
+        <v>1266.475129689327</v>
       </c>
       <c r="Y17" t="n">
-        <v>1263.064682367083</v>
+        <v>876.3357977135151</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.5458946967647</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C18" t="n">
-        <v>747.0928654156377</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D18" t="n">
-        <v>598.1584557543864</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E18" t="n">
-        <v>438.9210007489309</v>
+        <v>301.95386196593</v>
       </c>
       <c r="F18" t="n">
-        <v>292.3864427758159</v>
+        <v>155.419303992815</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.419303992815</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505445</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339193</v>
+        <v>161.140637133919</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>540.2677802593123</v>
       </c>
       <c r="M18" t="n">
         <v>1034.670495654875</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2222.939999577549</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1994.762495647264</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V18" t="n">
-        <v>1759.610387415521</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W18" t="n">
-        <v>1505.373030687319</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1297.521530481787</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.761231716833</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="19">
@@ -5676,43 +5676,43 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K19" t="n">
-        <v>93.68771932371203</v>
+        <v>93.68771932371205</v>
       </c>
       <c r="L19" t="n">
-        <v>206.6297039190408</v>
+        <v>206.6297039190409</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.100314134576</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420814</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801512</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807583</v>
       </c>
       <c r="S19" t="n">
-        <v>424.5997883913116</v>
+        <v>565.7360729319925</v>
       </c>
       <c r="T19" t="n">
-        <v>276.8093034305806</v>
+        <v>337.9988400551709</v>
       </c>
       <c r="U19" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="V19" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="W19" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X19" t="n">
         <v>48.81975253256328</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1246.955840192009</v>
+        <v>1126.705044379388</v>
       </c>
       <c r="C20" t="n">
-        <v>877.9933232515971</v>
+        <v>1126.705044379388</v>
       </c>
       <c r="D20" t="n">
-        <v>877.9933232515971</v>
+        <v>1126.705044379388</v>
       </c>
       <c r="E20" t="n">
-        <v>877.9933232515971</v>
+        <v>740.916791781144</v>
       </c>
       <c r="F20" t="n">
-        <v>467.0074184619895</v>
+        <v>329.9308869915364</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
         <v>795.0052981540048</v>
@@ -5764,40 +5764,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P20" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q20" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2190.61837996229</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U20" t="n">
-        <v>2190.61837996229</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V20" t="n">
-        <v>2190.61837996229</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="W20" t="n">
-        <v>2023.695012231942</v>
+        <v>1890.31013461628</v>
       </c>
       <c r="X20" t="n">
-        <v>2023.695012231942</v>
+        <v>1516.8443763552</v>
       </c>
       <c r="Y20" t="n">
-        <v>1633.55568025613</v>
+        <v>1126.705044379388</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D21" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E21" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F21" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G21" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H21" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I21" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J21" t="n">
         <v>112.9860412505444</v>
@@ -5840,43 +5840,43 @@
         <v>728.4044351658748</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561438</v>
+        <v>1191.758623309282</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827628</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346857</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973757</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>238.1971257069884</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="C22" t="n">
-        <v>238.1971257069884</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="D22" t="n">
-        <v>238.1971257069884</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="E22" t="n">
-        <v>238.1971257069884</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="F22" t="n">
-        <v>217.9199677091171</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J22" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K22" t="n">
         <v>93.68771932371203</v>
@@ -5940,22 +5940,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>640.6381696807582</v>
+        <v>507.0990552317248</v>
       </c>
       <c r="U22" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="V22" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="W22" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="X22" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="Y22" t="n">
-        <v>419.8455905372281</v>
+        <v>217.9199677091172</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1182.282975001274</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C23" t="n">
-        <v>1182.282975001274</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.282975001274</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E23" t="n">
-        <v>796.4947224030295</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540048</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2332.487905302287</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2332.487905302287</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V23" t="n">
-        <v>2332.487905302287</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W23" t="n">
-        <v>2332.487905302287</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X23" t="n">
-        <v>1959.022147041207</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="Y23" t="n">
-        <v>1568.882815065396</v>
+        <v>1632.744092790253</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439335</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628066</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015553</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960998</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298476</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561438</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R24" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494433</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.24906426269</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640016</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>367.8725748728059</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C25" t="n">
-        <v>198.936391944899</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256328</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256328</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K25" t="n">
         <v>93.68771932371203</v>
@@ -6177,22 +6177,22 @@
         <v>424.5997883913116</v>
       </c>
       <c r="T25" t="n">
-        <v>424.5997883913116</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U25" t="n">
-        <v>367.8725748728059</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V25" t="n">
-        <v>367.8725748728059</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="W25" t="n">
-        <v>367.8725748728059</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X25" t="n">
-        <v>367.8725748728059</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y25" t="n">
-        <v>367.8725748728059</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>897.1619452939267</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C26" t="n">
-        <v>897.1619452939267</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D26" t="n">
-        <v>897.1619452939267</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E26" t="n">
-        <v>897.1619452939267</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>486.1760405043191</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>486.1760405043191</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K26" t="n">
         <v>412.3079679977591</v>
@@ -6244,34 +6244,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2221.373021959851</v>
+        <v>2239.575076623219</v>
       </c>
       <c r="U26" t="n">
-        <v>1967.593327971733</v>
+        <v>1985.795382635101</v>
       </c>
       <c r="V26" t="n">
-        <v>1636.530440628163</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="W26" t="n">
-        <v>1283.761785358048</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="X26" t="n">
-        <v>1283.761785358048</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="Y26" t="n">
-        <v>1283.761785358048</v>
+        <v>1264.593163315719</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439335</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628066</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015553</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960998</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
         <v>112.9860412505444</v>
@@ -6320,16 +6320,16 @@
         <v>1746.002248079784</v>
       </c>
       <c r="O27" t="n">
-        <v>2158.207869599013</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
         <v>2222.939999577549</v>
@@ -6338,10 +6338,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
         <v>1306.011707534488</v>
@@ -6350,7 +6350,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640016</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>367.8725748728059</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="C28" t="n">
-        <v>198.936391944899</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256328</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256328</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256328</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K28" t="n">
         <v>93.68771932371203</v>
@@ -6423,13 +6423,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>367.8725748728059</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X28" t="n">
-        <v>367.8725748728059</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.8725748728059</v>
+        <v>123.2314487457803</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1290.782696327151</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="C29" t="n">
-        <v>1290.782696327151</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="D29" t="n">
-        <v>1290.782696327151</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E29" t="n">
-        <v>904.9944437289064</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F29" t="n">
-        <v>494.0085389392988</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G29" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977592</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540048</v>
@@ -6475,40 +6475,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N29" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O29" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>1806.192550292283</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>1475.129662948712</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="X29" t="n">
-        <v>2067.521868367084</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.382536391272</v>
+        <v>1122.361007678598</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>748.1556141834751</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>155.419303992815</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O30" t="n">
         <v>1970.07121469245</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
         <v>2222.939999577549</v>
@@ -6575,10 +6575,10 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494433</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.24906426269</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
         <v>1306.011707534488</v>
@@ -6587,7 +6587,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>916.3709512035432</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K31" t="n">
         <v>93.68771932371203</v>
@@ -6648,25 +6648,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>497.6018825741107</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>497.6018825741107</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U31" t="n">
-        <v>497.6018825741107</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V31" t="n">
-        <v>497.6018825741107</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W31" t="n">
-        <v>497.6018825741107</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>269.6123316760934</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1538.506759376218</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="C32" t="n">
-        <v>1169.544242435806</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D32" t="n">
-        <v>811.2785438290557</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E32" t="n">
-        <v>811.2785438290557</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F32" t="n">
-        <v>811.2785438290557</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G32" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U32" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V32" t="n">
-        <v>1928.64609135203</v>
+        <v>2348.567495491543</v>
       </c>
       <c r="W32" t="n">
-        <v>1928.64609135203</v>
+        <v>1995.798840221428</v>
       </c>
       <c r="X32" t="n">
-        <v>1928.64609135203</v>
+        <v>1622.333081960349</v>
       </c>
       <c r="Y32" t="n">
-        <v>1538.506759376218</v>
+        <v>1232.193749984537</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>779.834467487422</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C33" t="n">
-        <v>605.381438206295</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D33" t="n">
-        <v>456.4470285450437</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E33" t="n">
-        <v>297.2095735395882</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F33" t="n">
-        <v>150.6750155664732</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256328</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256328</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561438</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2440.987626628164</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="S33" t="n">
-        <v>2280.589895521038</v>
+        <v>2423.364071498218</v>
       </c>
       <c r="T33" t="n">
-        <v>2081.228572368207</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U33" t="n">
-        <v>1853.051068437921</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V33" t="n">
-        <v>1617.898960206178</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W33" t="n">
-        <v>1363.661603477977</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X33" t="n">
-        <v>1155.810103272444</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y33" t="n">
-        <v>948.0498045074901</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256328</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
         <v>93.68771932371203</v>
@@ -6885,25 +6885,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>497.3495645529149</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>269.6123316760934</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="U34" t="n">
-        <v>269.6123316760934</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="V34" t="n">
-        <v>269.6123316760934</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="W34" t="n">
-        <v>269.6123316760934</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="X34" t="n">
-        <v>269.6123316760934</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256328</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>898.6690099843188</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="C35" t="n">
-        <v>898.6690099843188</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="D35" t="n">
-        <v>540.4033113775683</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="E35" t="n">
-        <v>540.4033113775683</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F35" t="n">
-        <v>540.4033113775683</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G35" t="n">
-        <v>540.4033113775683</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
         <v>795.0052981540048</v>
@@ -6955,34 +6955,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2296.952002705097</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2296.952002705097</v>
       </c>
       <c r="V35" t="n">
-        <v>1386.161193962289</v>
+        <v>2296.952002705097</v>
       </c>
       <c r="W35" t="n">
-        <v>1033.392538692174</v>
+        <v>2296.952002705097</v>
       </c>
       <c r="X35" t="n">
-        <v>898.6690099843188</v>
+        <v>1923.486244444017</v>
       </c>
       <c r="Y35" t="n">
-        <v>898.6690099843188</v>
+        <v>1533.346912468206</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C36" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D36" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E36" t="n">
-        <v>333.3841980565167</v>
+        <v>239.5596775960998</v>
       </c>
       <c r="F36" t="n">
-        <v>186.8496400834017</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298476</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561438</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7034,34 +7034,34 @@
         <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973757</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S36" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V36" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W36" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
         <v>93.68771932371203</v>
@@ -7122,25 +7122,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U37" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V37" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W37" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X37" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1985.297187830733</v>
+        <v>527.1066343550906</v>
       </c>
       <c r="C38" t="n">
-        <v>1616.334670890321</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="D38" t="n">
-        <v>1616.334670890321</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E38" t="n">
-        <v>1230.546418292077</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F38" t="n">
-        <v>819.5605135024693</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G38" t="n">
-        <v>401.3728475730431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>71.88554363200308</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540049</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894855</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894855</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U38" t="n">
-        <v>2371.897027894855</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V38" t="n">
-        <v>2371.897027894855</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W38" t="n">
-        <v>2371.897027894855</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="X38" t="n">
-        <v>2371.897027894855</v>
+        <v>913.7064744192123</v>
       </c>
       <c r="Y38" t="n">
-        <v>2371.897027894855</v>
+        <v>913.7064744192123</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>779.834467487422</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>605.381438206295</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>456.4470285450437</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E39" t="n">
-        <v>297.2095735395882</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F39" t="n">
-        <v>150.6750155664732</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256328</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505445</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404816</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658749</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
         <v>1222.807150561438</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
         <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2283.899498973757</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368207</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1363.661603477977</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1155.810103272444</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>948.0498045074901</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>93.68771932371205</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L40" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>566.2264734675412</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U40" t="n">
-        <v>566.2264734675412</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V40" t="n">
-        <v>566.2264734675412</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W40" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>877.9933232515971</v>
+        <v>743.3107917011603</v>
       </c>
       <c r="C41" t="n">
-        <v>877.9933232515971</v>
+        <v>374.3482747607486</v>
       </c>
       <c r="D41" t="n">
-        <v>877.9933232515971</v>
+        <v>374.3482747607486</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>374.3482747607486</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>374.3482747607486</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256328</v>
+        <v>374.3482747607486</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256328</v>
@@ -7411,13 +7411,13 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977592</v>
+        <v>412.3079679977589</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
@@ -7426,7 +7426,7 @@
         <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
-        <v>2037.925350935286</v>
+        <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
         <v>2312.223157255915</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.22408130586</v>
+        <v>2187.207932640047</v>
       </c>
       <c r="V41" t="n">
-        <v>1717.22408130586</v>
+        <v>1856.145045296476</v>
       </c>
       <c r="W41" t="n">
-        <v>1654.732495291531</v>
+        <v>1503.376390026362</v>
       </c>
       <c r="X41" t="n">
-        <v>1654.732495291531</v>
+        <v>1129.910631765282</v>
       </c>
       <c r="Y41" t="n">
-        <v>1264.593163315719</v>
+        <v>1129.910631765282</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439335</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628066</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015553</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960998</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F42" t="n">
-        <v>93.02511962298476</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G42" t="n">
-        <v>93.02511962298476</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256328</v>
@@ -7490,52 +7490,52 @@
         <v>48.81975253256328</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505445</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K42" t="n">
-        <v>318.2287647883254</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>697.3559079137187</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1714.953720827628</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.159342346857</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494433</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.24906426269</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640016</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.4837667669762</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="C43" t="n">
-        <v>123.4837667669762</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G43" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256328</v>
@@ -7572,49 +7572,49 @@
         <v>48.81975253256328</v>
       </c>
       <c r="K43" t="n">
-        <v>93.68771932371205</v>
+        <v>93.68771932371203</v>
       </c>
       <c r="L43" t="n">
-        <v>206.6297039190409</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.100314134576</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420814</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801512</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807583</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>412.9009368039368</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U43" t="n">
-        <v>412.9009368039368</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="V43" t="n">
-        <v>412.9009368039368</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="W43" t="n">
-        <v>123.4837667669762</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="X43" t="n">
-        <v>123.4837667669762</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.4837667669762</v>
+        <v>207.4609049796586</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1190.8541559318</v>
+        <v>1109.504048394587</v>
       </c>
       <c r="C44" t="n">
-        <v>1190.8541559318</v>
+        <v>740.5415314541754</v>
       </c>
       <c r="D44" t="n">
-        <v>1190.8541559318</v>
+        <v>740.5415314541754</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.8541559318</v>
+        <v>354.7532788559311</v>
       </c>
       <c r="F44" t="n">
-        <v>779.8682511421921</v>
+        <v>354.7532788559311</v>
       </c>
       <c r="G44" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256328</v>
@@ -7654,7 +7654,7 @@
         <v>412.3079679977592</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540049</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7663,7 +7663,7 @@
         <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
-        <v>2037.925350935286</v>
+        <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
         <v>2312.223157255915</v>
@@ -7675,25 +7675,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T44" t="n">
-        <v>2221.373021959851</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U44" t="n">
-        <v>1967.593327971733</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V44" t="n">
-        <v>1967.593327971733</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W44" t="n">
-        <v>1967.593327971733</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X44" t="n">
-        <v>1967.593327971733</v>
+        <v>1886.24322043452</v>
       </c>
       <c r="Y44" t="n">
-        <v>1577.453995995921</v>
+        <v>1496.103888458709</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439335</v>
+        <v>779.834467487422</v>
       </c>
       <c r="C45" t="n">
-        <v>722.1845715439335</v>
+        <v>605.381438206295</v>
       </c>
       <c r="D45" t="n">
-        <v>573.2501618826823</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E45" t="n">
-        <v>414.0127068772268</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F45" t="n">
-        <v>267.4781489041118</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
         <v>155.419303992815</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684676</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494433</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.24906426269</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640016</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.7559354604702</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256328</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256328</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807583</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807583</v>
+        <v>424.5997883913117</v>
       </c>
       <c r="T46" t="n">
-        <v>445.7454863584875</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="U46" t="n">
-        <v>445.7454863584875</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="V46" t="n">
-        <v>445.7454863584875</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="W46" t="n">
-        <v>445.7454863584875</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="X46" t="n">
-        <v>217.7559354604702</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.7559354604702</v>
+        <v>217.9199677091172</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8072,13 +8072,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.27660229194301</v>
+        <v>61.27660229194299</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194299</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029004</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2426449029007</v>
+        <v>74.42821185443454</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>434.3429150104486</v>
       </c>
       <c r="N21" t="n">
-        <v>289.305349185409</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.3053491854096</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302588</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9968,10 +9968,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185851</v>
       </c>
       <c r="P27" t="n">
-        <v>128.4257434817932</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185851</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194301</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003851</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617151</v>
+        <v>51.40241131725693</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.305349185409</v>
+        <v>354.1197822338755</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10913,10 +10913,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.3053491854095</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185851</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194301</v>
       </c>
       <c r="K42" t="n">
-        <v>233.1030882730269</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.40241131725692</v>
+        <v>84.85469562617151</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>350.8365916567693</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>357.140516409762</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>91.216128968671</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.1308741609314</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>16.48505947671813</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,13 +23433,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>82.90166514134621</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617341</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407323</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
@@ -23469,16 +23469,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>307.3432492232746</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>156.1390442186905</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>61.7702425261319</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>158.3910720113372</v>
       </c>
     </row>
     <row r="16">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>106.5529215984628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23676,7 +23676,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617341</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407323</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23709,19 +23709,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>212.6197173962967</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>355.392766168614</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.7716379754778</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>61.77024252613191</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>66.55691803568347</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617342</v>
+        <v>52.22830032617341</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407324</v>
+        <v>37.44704598407323</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.7249216952739</v>
       </c>
       <c r="T19" t="n">
-        <v>79.14728043692963</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>135.7057661557486</v>
       </c>
       <c r="H20" t="n">
         <v>326.1924309016296</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>183.9868346643683</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>21.74148333600759</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>35.81287827175896</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>125.3466616050387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>93.25613724351024</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>178.4034272549889</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>165.0709956748934</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581273</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>230.127355264061</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>250.9963163946518</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>53.6849981645168</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>86.41972686271131</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>21.74148333600715</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>93.74163377370351</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>16.48505947671822</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>133.7441830823893</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>88.07878429655912</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>25.71133221314619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24888,25 +24888,25 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>72.27207324097114</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>212.3699225553129</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>145.8393091431596</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597628</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
         <v>217.4184586216305</v>
@@ -24976,13 +24976,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>304.656021390856</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>35.81287827175917</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405353</v>
+        <v>39.62607740540699</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,10 +25125,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>72.02227839998727</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>93.32944700655918</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>143.2228836837706</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>236.354807257692</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>61.7702425261319</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405353</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>98.82385126562909</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25362,7 +25362,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>79.14728043692963</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>298.644924508417</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>137.6401591664801</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>35.81287827175917</v>
+        <v>116.479562392348</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405352</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25602,19 +25602,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>151.7922812969683</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>3.919193895726153</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.39969274597628</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>287.3742985632271</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>61.7702425261319</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405353</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>35.8128782717589</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>74.69809892614357</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,13 +25803,13 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.22830032617341</v>
+        <v>52.22830032617342</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407323</v>
+        <v>37.44704598407324</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>82.90166514134623</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>16.46020654822905</v>
+        <v>111.1315982099978</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25915,13 +25915,13 @@
         <v>68.39969274597627</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25946,10 +25946,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>141.3464342174083</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>25.71133221314616</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405352</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26073,10 +26073,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>32.51610405900522</v>
+        <v>20.84683807268075</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>635654.5794812482</v>
+        <v>635654.5794812483</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>635654.5794812483</v>
+        <v>635654.5794812482</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>635654.5794812482</v>
+        <v>635654.5794812483</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>635654.5794812483</v>
+        <v>635654.5794812482</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>635654.5794812483</v>
+        <v>635654.5794812482</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>635654.5794812483</v>
+        <v>635654.5794812482</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>635654.5794812483</v>
+        <v>635654.5794812482</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>635654.5794812482</v>
+        <v>635654.5794812483</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="E2" t="n">
-        <v>366042.2311676203</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="F2" t="n">
-        <v>366042.2311676206</v>
+        <v>366042.2311676205</v>
       </c>
       <c r="G2" t="n">
         <v>366042.2311676205</v>
       </c>
       <c r="H2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="I2" t="n">
         <v>366042.2311676205</v>
@@ -26343,16 +26343,16 @@
         <v>366042.2311676204</v>
       </c>
       <c r="L2" t="n">
+        <v>366042.2311676205</v>
+      </c>
+      <c r="M2" t="n">
         <v>366042.2311676204</v>
       </c>
-      <c r="M2" t="n">
-        <v>366042.2311676203</v>
-      </c>
       <c r="N2" t="n">
+        <v>366042.2311676204</v>
+      </c>
+      <c r="O2" t="n">
         <v>366042.2311676205</v>
-      </c>
-      <c r="O2" t="n">
-        <v>366042.2311676204</v>
       </c>
       <c r="P2" t="n">
         <v>366042.2311676204</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327803</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109311</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>53162.14282437484</v>
       </c>
       <c r="F4" t="n">
-        <v>53162.14282437483</v>
+        <v>53162.14282437484</v>
       </c>
       <c r="G4" t="n">
         <v>53162.14282437483</v>
       </c>
       <c r="H4" t="n">
+        <v>53162.14282437483</v>
+      </c>
+      <c r="I4" t="n">
+        <v>53162.14282437483</v>
+      </c>
+      <c r="J4" t="n">
         <v>53162.14282437482</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>53162.14282437482</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>53162.14282437483</v>
+      </c>
+      <c r="M4" t="n">
+        <v>53162.14282437483</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53162.14282437482</v>
+      </c>
+      <c r="O4" t="n">
         <v>53162.14282437484</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>53162.14282437483</v>
-      </c>
-      <c r="L4" t="n">
-        <v>53162.14282437484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>53162.14282437482</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53162.14282437483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53162.14282437482</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53162.14282437482</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="F5" t="n">
         <v>44136.03802033843</v>
@@ -26487,25 +26487,25 @@
         <v>44136.03802033843</v>
       </c>
       <c r="H5" t="n">
+        <v>44136.03802033843</v>
+      </c>
+      <c r="I5" t="n">
         <v>44136.03802033842</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="K5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44136.03802033842</v>
+      </c>
+      <c r="M5" t="n">
         <v>44136.03802033843</v>
       </c>
-      <c r="J5" t="n">
-        <v>44136.03802033843</v>
-      </c>
-      <c r="K5" t="n">
-        <v>44136.03802033843</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44136.03802033843</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>44136.03802033842</v>
-      </c>
-      <c r="N5" t="n">
-        <v>44136.03802033843</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033843</v>
@@ -26524,46 +26524,46 @@
         <v>95821.96280108788</v>
       </c>
       <c r="C6" t="n">
+        <v>176591.3943326356</v>
+      </c>
+      <c r="D6" t="n">
         <v>176591.3943326357</v>
       </c>
-      <c r="D6" t="n">
-        <v>176591.3943326356</v>
-      </c>
       <c r="E6" t="n">
-        <v>-107660.1733836054</v>
+        <v>-101388.1412672463</v>
       </c>
       <c r="F6" t="n">
-        <v>261775.125749175</v>
+        <v>268047.157865534</v>
       </c>
       <c r="G6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.1578655341</v>
       </c>
       <c r="H6" t="n">
-        <v>261775.125749175</v>
+        <v>268047.157865534</v>
       </c>
       <c r="I6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.157865534</v>
       </c>
       <c r="J6" t="n">
-        <v>198715.1831500687</v>
+        <v>204987.2152664278</v>
       </c>
       <c r="K6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.157865534</v>
       </c>
       <c r="L6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.157865534</v>
       </c>
       <c r="M6" t="n">
-        <v>169760.8804680818</v>
+        <v>176032.9125844408</v>
       </c>
       <c r="N6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.157865534</v>
       </c>
       <c r="O6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.157865534</v>
       </c>
       <c r="P6" t="n">
-        <v>261775.1257491749</v>
+        <v>268047.157865534</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>322.6158759445109</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445109</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445109</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="F4" t="n">
         <v>610.246906657041</v>
@@ -26807,25 +26807,25 @@
         <v>610.246906657041</v>
       </c>
       <c r="H4" t="n">
+        <v>610.246906657041</v>
+      </c>
+      <c r="I4" t="n">
         <v>610.2469066570409</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="K4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="L4" t="n">
+        <v>610.2469066570409</v>
+      </c>
+      <c r="M4" t="n">
         <v>610.246906657041</v>
       </c>
-      <c r="J4" t="n">
-        <v>610.246906657041</v>
-      </c>
-      <c r="K4" t="n">
-        <v>610.246906657041</v>
-      </c>
-      <c r="L4" t="n">
-        <v>610.246906657041</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>610.2469066570409</v>
-      </c>
-      <c r="N4" t="n">
-        <v>610.246906657041</v>
       </c>
       <c r="O4" t="n">
         <v>610.246906657041</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.232617779382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>284.4427772960522</v>
       </c>
       <c r="D2" t="n">
-        <v>273.8529271457276</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27469,10 +27469,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>75.72709062278429</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27554,7 +27554,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>54.03113748306089</v>
+        <v>137.4717399996488</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>333.5151654886528</v>
+        <v>151.6518282560894</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>48.72576195918364</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>21.46887964564732</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>144.6688768646272</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>314.5236871822507</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>142.265735089176</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27946,16 +27946,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>55.70486586309899</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>179.1139601010482</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>145.2128293259435</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>162.4565364694636</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31758,25 +31758,25 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548045</v>
       </c>
       <c r="J11" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
-        <v>164.9766803203078</v>
+        <v>164.9766803203079</v>
       </c>
       <c r="L11" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733203</v>
       </c>
       <c r="M11" t="n">
         <v>227.7327635253934</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265084</v>
       </c>
       <c r="O11" t="n">
-        <v>218.5211886152591</v>
+        <v>218.5211886152592</v>
       </c>
       <c r="P11" t="n">
         <v>186.5027788167461</v>
@@ -31785,13 +31785,13 @@
         <v>140.0558197925741</v>
       </c>
       <c r="R11" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517341</v>
       </c>
       <c r="S11" t="n">
-        <v>29.55420813300721</v>
+        <v>29.55420813300722</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500889</v>
+        <v>5.67739094250089</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.6939284878806462</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847295</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589067</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472369</v>
+        <v>65.5610243747237</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
-        <v>150.670744704085</v>
+        <v>150.6707447040851</v>
       </c>
       <c r="M12" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
-        <v>180.479234222958</v>
+        <v>180.4792342229581</v>
       </c>
       <c r="O12" t="n">
         <v>165.1032398336027</v>
@@ -31861,19 +31861,19 @@
         <v>132.5099057252087</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876458</v>
+        <v>88.5793627687646</v>
       </c>
       <c r="R12" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858961</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778305</v>
       </c>
       <c r="T12" t="n">
-        <v>2.797018773518919</v>
+        <v>2.79701877351892</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.0456531899921478</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704295</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815277</v>
       </c>
       <c r="I13" t="n">
-        <v>17.49530028892528</v>
+        <v>17.49530028892529</v>
       </c>
       <c r="J13" t="n">
         <v>41.13087979049936</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280078</v>
+        <v>67.5906704028008</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223823</v>
+        <v>86.49278746223824</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526559</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613043</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188946</v>
       </c>
       <c r="P13" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501265</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762115</v>
       </c>
       <c r="R13" t="n">
         <v>26.15832987576312</v>
@@ -31995,40 +31995,40 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548045</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
-        <v>164.9766803203078</v>
+        <v>164.9766803203079</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733203</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253934</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265084</v>
       </c>
       <c r="O14" t="n">
-        <v>218.5211886152591</v>
+        <v>218.5211886152592</v>
       </c>
       <c r="P14" t="n">
         <v>186.5027788167461</v>
       </c>
       <c r="Q14" t="n">
-        <v>140.055819792574</v>
+        <v>140.0558197925741</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517341</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300722</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500888</v>
+        <v>5.67739094250089</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806462</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847295</v>
       </c>
       <c r="I15" t="n">
-        <v>23.89183609589066</v>
+        <v>23.89183609589067</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472367</v>
+        <v>65.5610243747237</v>
       </c>
       <c r="K15" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
-        <v>150.670744704085</v>
+        <v>150.6707447040851</v>
       </c>
       <c r="M15" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
-        <v>180.479234222958</v>
+        <v>180.4792342229581</v>
       </c>
       <c r="O15" t="n">
-        <v>165.1032398336026</v>
+        <v>165.1032398336027</v>
       </c>
       <c r="P15" t="n">
-        <v>132.5099057252086</v>
+        <v>132.5099057252087</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876457</v>
+        <v>88.5793627687646</v>
       </c>
       <c r="R15" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858961</v>
       </c>
       <c r="S15" t="n">
-        <v>12.88941730778304</v>
+        <v>12.88941730778305</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.79701877351892</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.0456531899921478</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704295</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815277</v>
       </c>
       <c r="I16" t="n">
-        <v>17.49530028892528</v>
+        <v>17.49530028892529</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049936</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280077</v>
+        <v>67.5906704028008</v>
       </c>
       <c r="L16" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223824</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526559</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613043</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188946</v>
       </c>
       <c r="P16" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501265</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762115</v>
       </c>
       <c r="R16" t="n">
         <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
-        <v>10.13860056042011</v>
+        <v>10.13860056042012</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228198</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929619</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,25 +32232,25 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548044</v>
+        <v>50.00059721548045</v>
       </c>
       <c r="J17" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
-        <v>164.9766803203078</v>
+        <v>164.9766803203079</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733203</v>
       </c>
       <c r="M17" t="n">
         <v>227.7327635253934</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265084</v>
       </c>
       <c r="O17" t="n">
-        <v>218.5211886152591</v>
+        <v>218.5211886152592</v>
       </c>
       <c r="P17" t="n">
         <v>186.5027788167461</v>
@@ -32259,13 +32259,13 @@
         <v>140.0558197925741</v>
       </c>
       <c r="R17" t="n">
-        <v>81.4694251951734</v>
+        <v>81.46942519517341</v>
       </c>
       <c r="S17" t="n">
-        <v>29.55420813300721</v>
+        <v>29.55420813300722</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500889</v>
+        <v>5.67739094250089</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806461</v>
+        <v>0.6939284878806462</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847293</v>
+        <v>6.701888290847295</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589067</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472369</v>
+        <v>65.5610243747237</v>
       </c>
       <c r="K18" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
-        <v>150.670744704085</v>
+        <v>150.6707447040851</v>
       </c>
       <c r="M18" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
-        <v>180.479234222958</v>
+        <v>180.4792342229581</v>
       </c>
       <c r="O18" t="n">
         <v>165.1032398336027</v>
@@ -32335,19 +32335,19 @@
         <v>132.5099057252087</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876458</v>
+        <v>88.5793627687646</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858961</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778305</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518919</v>
+        <v>2.79701877351892</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.0456531899921478</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,37 +32384,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704294</v>
+        <v>0.5817663336704295</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815276</v>
+        <v>5.172431584815277</v>
       </c>
       <c r="I19" t="n">
-        <v>17.49530028892528</v>
+        <v>17.49530028892529</v>
       </c>
       <c r="J19" t="n">
         <v>41.13087979049936</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280078</v>
+        <v>67.5906704028008</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223823</v>
+        <v>86.49278746223824</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526558</v>
+        <v>91.19451719526559</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613042</v>
+        <v>89.02611540613043</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188945</v>
+        <v>82.23002687188946</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501263</v>
+        <v>70.36199366501265</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762115</v>
       </c>
       <c r="R19" t="n">
         <v>26.15832987576312</v>
@@ -33891,25 +33891,25 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J38" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L38" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M38" t="n">
         <v>227.7327635253934</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P38" t="n">
         <v>186.5027788167461</v>
@@ -33918,13 +33918,13 @@
         <v>140.0558197925741</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517341</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S38" t="n">
-        <v>29.55420813300722</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T38" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589067</v>
       </c>
       <c r="J39" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K39" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O39" t="n">
         <v>165.1032398336027</v>
@@ -33994,19 +33994,19 @@
         <v>132.5099057252087</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778305</v>
       </c>
       <c r="T39" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I40" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
         <v>41.13087979049936</v>
       </c>
       <c r="K40" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223824</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
         <v>26.15832987576312</v>
@@ -34128,25 +34128,25 @@
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548045</v>
+        <v>50.00059721548044</v>
       </c>
       <c r="J41" t="n">
         <v>110.0768611093284</v>
       </c>
       <c r="K41" t="n">
-        <v>164.9766803203079</v>
+        <v>164.9766803203078</v>
       </c>
       <c r="L41" t="n">
-        <v>204.6681601733203</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M41" t="n">
         <v>227.7327635253934</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265084</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
-        <v>218.5211886152592</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P41" t="n">
         <v>186.5027788167461</v>
@@ -34155,13 +34155,13 @@
         <v>140.0558197925741</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517341</v>
+        <v>81.4694251951734</v>
       </c>
       <c r="S41" t="n">
-        <v>29.55420813300722</v>
+        <v>29.55420813300721</v>
       </c>
       <c r="T41" t="n">
-        <v>5.67739094250089</v>
+        <v>5.677390942500889</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6939284878806462</v>
+        <v>0.6939284878806461</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847295</v>
+        <v>6.701888290847293</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589067</v>
       </c>
       <c r="J42" t="n">
-        <v>65.5610243747237</v>
+        <v>65.56102437472369</v>
       </c>
       <c r="K42" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
-        <v>150.6707447040851</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
-        <v>180.4792342229581</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O42" t="n">
         <v>165.1032398336027</v>
@@ -34231,19 +34231,19 @@
         <v>132.5099057252087</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.5793627687646</v>
+        <v>88.57936276876458</v>
       </c>
       <c r="R42" t="n">
-        <v>43.08443716858961</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778305</v>
       </c>
       <c r="T42" t="n">
-        <v>2.79701877351892</v>
+        <v>2.797018773518919</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0456531899921478</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704295</v>
+        <v>0.5817663336704294</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815277</v>
+        <v>5.172431584815276</v>
       </c>
       <c r="I43" t="n">
-        <v>17.49530028892529</v>
+        <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
         <v>41.13087979049936</v>
       </c>
       <c r="K43" t="n">
-        <v>67.5906704028008</v>
+        <v>67.59067040280078</v>
       </c>
       <c r="L43" t="n">
-        <v>86.49278746223824</v>
+        <v>86.49278746223823</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526559</v>
+        <v>91.19451719526558</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613043</v>
+        <v>89.02611540613042</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188946</v>
+        <v>82.23002687188945</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501265</v>
+        <v>70.36199366501263</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762115</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R43" t="n">
         <v>26.15832987576312</v>
@@ -34783,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471589</v>
       </c>
       <c r="K11" t="n">
         <v>269.0322418464921</v>
       </c>
       <c r="L11" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537835</v>
       </c>
       <c r="M11" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419016</v>
       </c>
       <c r="O11" t="n">
         <v>369.2231584563178</v>
@@ -35500,10 +35500,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>528.4798964831783</v>
       </c>
       <c r="O12" t="n">
-        <v>416.3693146658877</v>
+        <v>416.3693146658878</v>
       </c>
       <c r="P12" t="n">
         <v>316.9982669508156</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691794</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225544</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990614</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471589</v>
       </c>
       <c r="K14" t="n">
-        <v>269.032241846492</v>
+        <v>269.0322418464921</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537835</v>
       </c>
       <c r="M14" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419016</v>
       </c>
       <c r="O14" t="n">
-        <v>369.2231584563177</v>
+        <v>369.2231584563178</v>
       </c>
       <c r="P14" t="n">
         <v>277.0684912329592</v>
       </c>
       <c r="Q14" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912684</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35737,16 +35737,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831783</v>
       </c>
       <c r="O15" t="n">
-        <v>416.3693146658877</v>
+        <v>416.3693146658878</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>158.6748764185922</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.32117857691792</v>
+        <v>45.32117857691794</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0828127225543</v>
+        <v>114.0828127225544</v>
       </c>
       <c r="M16" t="n">
         <v>130.7783941571062</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990614</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471586</v>
+        <v>98.12757175471589</v>
       </c>
       <c r="K17" t="n">
         <v>269.0322418464921</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537835</v>
       </c>
       <c r="M17" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419016</v>
       </c>
       <c r="O17" t="n">
         <v>369.2231584563178</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>64.81443304846584</v>
       </c>
       <c r="K18" t="n">
-        <v>113.4554389912687</v>
+        <v>48.64100594280252</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
@@ -35974,10 +35974,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>528.4798964831782</v>
+        <v>528.4798964831783</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658877</v>
+        <v>416.3693146658878</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508156</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691793</v>
+        <v>45.32117857691794</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225544</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990612</v>
+        <v>67.64055292990614</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>468.0345334781887</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4428713250338</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508156</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185922</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846583</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36448,13 +36448,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250343</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>316.9982669508156</v>
+        <v>191.7756748411372</v>
       </c>
       <c r="Q24" t="n">
         <v>158.6748764185922</v>
@@ -36688,10 +36688,10 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077434</v>
       </c>
       <c r="P27" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508156</v>
       </c>
       <c r="Q27" t="n">
         <v>158.6748764185922</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36919,13 +36919,13 @@
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077434</v>
       </c>
       <c r="P30" t="n">
         <v>316.9982669508156</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009466</v>
@@ -37165,10 +37165,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P33" t="n">
-        <v>316.9982669508156</v>
+        <v>285.6361182112636</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891457</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846583</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37396,7 +37396,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250338</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K38" t="n">
         <v>269.0322418464921</v>
       </c>
       <c r="L38" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O38" t="n">
         <v>369.2231584563178</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846584</v>
+        <v>64.81443304846583</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37633,10 +37633,10 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250343</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658878</v>
+        <v>226.3322895077434</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508156</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225544</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471589</v>
+        <v>98.12757175471586</v>
       </c>
       <c r="K41" t="n">
         <v>269.0322418464921</v>
       </c>
       <c r="L41" t="n">
-        <v>386.5629597537835</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
         <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
-        <v>439.3515785419016</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O41" t="n">
         <v>369.2231584563178</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846584</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>207.3158823613949</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37870,16 +37870,16 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831783</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
-        <v>416.3693146658878</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
         <v>316.9982669508156</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691794</v>
+        <v>45.32117857691793</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225544</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990614</v>
+        <v>67.64055292990612</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780293</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
